--- a/output/0/tRNA-Gly-GCC-2-3.xlsx
+++ b/output/0/tRNA-Gly-GCC-2-3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="85">
   <si>
     <t>chr6</t>
   </si>
@@ -267,33 +267,6 @@
   </si>
   <si>
     <t>72</t>
-  </si>
-  <si>
-    <t>27871095</t>
-  </si>
-  <si>
-    <t>27871118</t>
-  </si>
-  <si>
-    <t>27871098</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>ATAATATTAATCAAAAGAAT</t>
-  </si>
-  <si>
-    <t>3% (12)</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 25%, Moreno-Mateos: 3%</t>
   </si>
 </sst>
 </file>
@@ -338,7 +311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -939,55 +912,55 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="J11" t="s">
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="M11" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N11" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="O11" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="P11" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="Q11" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="R11" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="S11" t="s">
         <v>3</v>
@@ -998,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -1010,10 +983,10 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
         <v>6</v>
@@ -1025,25 +998,25 @@
         <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="L12" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s">
         <v>10</v>
       </c>
       <c r="N12" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="O12" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="P12" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="R12" t="s">
         <v>15</v>
@@ -1057,22 +1030,22 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s">
         <v>6</v>
@@ -1084,25 +1057,25 @@
         <v>7</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M13" t="s">
         <v>10</v>
       </c>
       <c r="N13" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="O13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="P13" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="Q13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R13" t="s">
         <v>15</v>
@@ -1116,22 +1089,22 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
         <v>6</v>
@@ -1143,25 +1116,25 @@
         <v>7</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="L14" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="M14" t="s">
         <v>10</v>
       </c>
       <c r="N14" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="O14" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="Q14" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="R14" t="s">
         <v>15</v>
@@ -1175,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -1187,10 +1160,10 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
         <v>6</v>
@@ -1202,25 +1175,25 @@
         <v>7</v>
       </c>
       <c r="K15" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L15" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M15" t="s">
         <v>10</v>
       </c>
       <c r="N15" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="O15" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P15" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="Q15" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="R15" t="s">
         <v>15</v>
@@ -1234,22 +1207,22 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
         <v>6</v>
@@ -1261,25 +1234,25 @@
         <v>7</v>
       </c>
       <c r="K16" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="L16" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M16" t="s">
         <v>10</v>
       </c>
       <c r="N16" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="O16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="P16" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="Q16" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="R16" t="s">
         <v>15</v>
@@ -1293,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -1305,10 +1278,10 @@
         <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s">
         <v>6</v>
@@ -1320,25 +1293,25 @@
         <v>7</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L17" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M17" t="s">
         <v>10</v>
       </c>
       <c r="N17" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="O17" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="P17" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="Q17" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="R17" t="s">
         <v>15</v>
@@ -1352,10 +1325,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -1364,10 +1337,10 @@
         <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
         <v>6</v>
@@ -1379,25 +1352,25 @@
         <v>7</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="L18" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="M18" t="s">
         <v>10</v>
       </c>
       <c r="N18" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="O18" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P18" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="Q18" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="R18" t="s">
         <v>15</v>
@@ -1411,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -1423,10 +1396,10 @@
         <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s">
         <v>6</v>
@@ -1438,25 +1411,25 @@
         <v>7</v>
       </c>
       <c r="K19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L19" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M19" t="s">
         <v>10</v>
       </c>
       <c r="N19" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="O19" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="P19" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q19" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="R19" t="s">
         <v>15</v>
@@ -1470,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -1482,10 +1455,10 @@
         <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s">
         <v>6</v>
@@ -1497,89 +1470,30 @@
         <v>7</v>
       </c>
       <c r="K20" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L20" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M20" t="s">
         <v>10</v>
       </c>
       <c r="N20" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O20" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="P20" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="Q20" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="R20" t="s">
         <v>15</v>
       </c>
       <c r="S20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" t="s">
-        <v>80</v>
-      </c>
-      <c r="L21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21" t="s">
-        <v>81</v>
-      </c>
-      <c r="O21" t="s">
-        <v>82</v>
-      </c>
-      <c r="P21" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>84</v>
-      </c>
-      <c r="R21" t="s">
-        <v>15</v>
-      </c>
-      <c r="S21" t="s">
         <v>3</v>
       </c>
     </row>
